--- a/MobileApp_Checklist.xlsx
+++ b/MobileApp_Checklist.xlsx
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="185">
   <si>
     <t>Test Name</t>
   </si>
@@ -143,9 +143,6 @@
   </si>
   <si>
     <t>Abusing Android Components through IPC intents ("exported" and "intent-filter")</t>
-  </si>
-  <si>
-    <t>Abusing iOS URL schemes</t>
   </si>
   <si>
     <t>Unauthorized Code Modification</t>
@@ -314,9 +311,6 @@
     <t>Identify android exported components</t>
   </si>
   <si>
-    <t>Identify URL schemes through info.plist and Clutch+Strings to obtain URL scheme structures</t>
-  </si>
-  <si>
     <t>iFunbox, Clutch, Strings</t>
   </si>
   <si>
@@ -628,6 +622,22 @@
   </si>
   <si>
     <t>M10-03</t>
+  </si>
+  <si>
+    <t>M1-06</t>
+  </si>
+  <si>
+    <t>Information Exposure through API response message</t>
+  </si>
+  <si>
+    <t>Identify sensitive information on API response message/header</t>
+  </si>
+  <si>
+    <t>Abusing URL schemes</t>
+  </si>
+  <si>
+    <t>For iOS: Identify URL schemes through info.plist and Clutch+Strings to obtain URL scheme structures
+For Android: Identify URL schemes through source code or apk file</t>
   </si>
 </sst>
 </file>
@@ -859,18 +869,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -889,6 +887,18 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1476,10 +1486,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C62"/>
+  <dimension ref="A1:C63"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:C1"/>
+    <sheetView topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1491,18 +1501,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
-        <v>120</v>
-      </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
+      <c r="A1" s="38" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
     </row>
     <row r="3" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>0</v>
@@ -1513,7 +1523,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>8</v>
@@ -1524,9 +1534,9 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="B5" s="35" t="s">
+        <v>131</v>
+      </c>
+      <c r="B5" s="31" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="6" t="s">
@@ -1535,9 +1545,9 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="B6" s="36" t="s">
+        <v>132</v>
+      </c>
+      <c r="B6" s="32" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="6" t="s">
@@ -1546,9 +1556,9 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="B7" s="36" t="s">
+        <v>133</v>
+      </c>
+      <c r="B7" s="32" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="6" t="s">
@@ -1557,9 +1567,9 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="B8" s="35" t="s">
+        <v>134</v>
+      </c>
+      <c r="B8" s="31" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="6" t="s">
@@ -1567,37 +1577,37 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="3"/>
-      <c r="B9" s="13"/>
-    </row>
-    <row r="10" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="B10" s="4" t="s">
+      <c r="A9" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B9" s="31" t="s">
+        <v>181</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="3"/>
+      <c r="B10" s="13"/>
+    </row>
+    <row r="11" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C11" s="4" t="s">
         <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="B12" s="37" t="s">
-        <v>12</v>
+        <v>136</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>46</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>6</v>
@@ -1605,10 +1615,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="B13" s="35" t="s">
-        <v>141</v>
+        <v>137</v>
+      </c>
+      <c r="B13" s="33" t="s">
+        <v>12</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>6</v>
@@ -1616,10 +1626,10 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="B14" s="36" t="s">
-        <v>50</v>
+        <v>138</v>
+      </c>
+      <c r="B14" s="31" t="s">
+        <v>139</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>6</v>
@@ -1627,46 +1637,46 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="B15" s="35" t="s">
-        <v>51</v>
+        <v>140</v>
+      </c>
+      <c r="B15" s="32" t="s">
+        <v>49</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="2"/>
-    </row>
-    <row r="17" spans="1:3" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A17" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="B17" s="4" t="s">
+      <c r="A16" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B16" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="2"/>
+    </row>
+    <row r="18" spans="1:3" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="B18" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C18" s="4" t="s">
         <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="B18" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="B19" s="36" t="s">
-        <v>26</v>
+        <v>143</v>
+      </c>
+      <c r="B19" s="32" t="s">
+        <v>3</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>6</v>
@@ -1674,10 +1684,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="B20" s="36" t="s">
-        <v>95</v>
+        <v>144</v>
+      </c>
+      <c r="B20" s="32" t="s">
+        <v>25</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>6</v>
@@ -1685,46 +1695,46 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="B21" s="36" t="s">
-        <v>94</v>
+        <v>145</v>
+      </c>
+      <c r="B21" s="32" t="s">
+        <v>93</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="2"/>
-    </row>
-    <row r="23" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A23" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="B23" s="4" t="s">
+      <c r="A22" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B22" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="2"/>
+    </row>
+    <row r="24" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A24" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="B24" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C24" s="4" t="s">
         <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="B24" s="36" t="s">
-        <v>13</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="B25" s="36" t="s">
-        <v>2</v>
+        <v>148</v>
+      </c>
+      <c r="B25" s="32" t="s">
+        <v>13</v>
       </c>
       <c r="C25" s="6" t="s">
         <v>6</v>
@@ -1732,10 +1742,10 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="B26" s="36" t="s">
-        <v>14</v>
+        <v>149</v>
+      </c>
+      <c r="B26" s="32" t="s">
+        <v>2</v>
       </c>
       <c r="C26" s="6" t="s">
         <v>6</v>
@@ -1743,10 +1753,10 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="B27" s="36" t="s">
-        <v>154</v>
+        <v>150</v>
+      </c>
+      <c r="B27" s="32" t="s">
+        <v>14</v>
       </c>
       <c r="C27" s="6" t="s">
         <v>6</v>
@@ -1754,10 +1764,10 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="B28" s="36" t="s">
-        <v>15</v>
+        <v>151</v>
+      </c>
+      <c r="B28" s="32" t="s">
+        <v>152</v>
       </c>
       <c r="C28" s="6" t="s">
         <v>6</v>
@@ -1765,46 +1775,46 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="B29" s="36" t="s">
+        <v>153</v>
+      </c>
+      <c r="B29" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B30" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="C29" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="2"/>
-    </row>
-    <row r="31" spans="1:3" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A31" s="38" t="s">
-        <v>117</v>
-      </c>
-      <c r="B31" s="38" t="s">
+      <c r="C30" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" s="2"/>
+    </row>
+    <row r="32" spans="1:3" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A32" s="34" t="s">
+        <v>115</v>
+      </c>
+      <c r="B32" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="C31" s="38" t="s">
+      <c r="C32" s="34" t="s">
         <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="B32" s="39" t="s">
-        <v>109</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="B33" s="40" t="s">
-        <v>66</v>
+        <v>155</v>
+      </c>
+      <c r="B33" s="35" t="s">
+        <v>107</v>
       </c>
       <c r="C33" s="6" t="s">
         <v>6</v>
@@ -1812,9 +1822,9 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="B34" s="39" t="s">
+        <v>156</v>
+      </c>
+      <c r="B34" s="36" t="s">
         <v>65</v>
       </c>
       <c r="C34" s="6" t="s">
@@ -1823,10 +1833,10 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="B35" s="39" t="s">
-        <v>27</v>
+        <v>157</v>
+      </c>
+      <c r="B35" s="35" t="s">
+        <v>64</v>
       </c>
       <c r="C35" s="6" t="s">
         <v>6</v>
@@ -1834,46 +1844,46 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="B36" s="39" t="s">
-        <v>25</v>
+        <v>158</v>
+      </c>
+      <c r="B36" s="35" t="s">
+        <v>26</v>
       </c>
       <c r="C36" s="6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" s="2"/>
-    </row>
-    <row r="38" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A38" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="B38" s="4" t="s">
+      <c r="A37" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="B37" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" s="2"/>
+    </row>
+    <row r="39" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A39" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="B39" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C38" s="4" t="s">
+      <c r="C39" s="4" t="s">
         <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="B39" s="41" t="s">
-        <v>54</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="B40" s="39" t="s">
-        <v>44</v>
+        <v>161</v>
+      </c>
+      <c r="B40" s="37" t="s">
+        <v>53</v>
       </c>
       <c r="C40" s="6" t="s">
         <v>6</v>
@@ -1881,46 +1891,46 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="B41" s="39" t="s">
+        <v>162</v>
+      </c>
+      <c r="B41" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B42" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="C41" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A42" s="2"/>
-    </row>
-    <row r="43" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A43" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="B43" s="4" t="s">
+      <c r="C42" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" s="2"/>
+    </row>
+    <row r="44" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A44" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="B44" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C43" s="4" t="s">
+      <c r="C44" s="4" t="s">
         <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A44" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="B44" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="C44" s="6" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="B45" s="36" t="s">
-        <v>20</v>
+        <v>165</v>
+      </c>
+      <c r="B45" s="32" t="s">
+        <v>18</v>
       </c>
       <c r="C45" s="6" t="s">
         <v>6</v>
@@ -1928,10 +1938,10 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="B46" s="36" t="s">
-        <v>19</v>
+        <v>166</v>
+      </c>
+      <c r="B46" s="32" t="s">
+        <v>20</v>
       </c>
       <c r="C46" s="6" t="s">
         <v>6</v>
@@ -1939,83 +1949,83 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="B47" s="35" t="s">
-        <v>100</v>
+        <v>167</v>
+      </c>
+      <c r="B47" s="32" t="s">
+        <v>19</v>
       </c>
       <c r="C47" s="6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A48" s="3"/>
-      <c r="B48" s="13"/>
-    </row>
-    <row r="49" spans="1:3" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A49" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="B49" s="4" t="s">
+      <c r="A48" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B48" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49" s="3"/>
+      <c r="B49" s="13"/>
+    </row>
+    <row r="50" spans="1:3" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A50" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="B50" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C49" s="4" t="s">
+      <c r="C50" s="4" t="s">
         <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A50" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="B50" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="C50" s="6" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="B51" s="36" t="s">
-        <v>22</v>
+        <v>170</v>
+      </c>
+      <c r="B51" s="32" t="s">
+        <v>21</v>
       </c>
       <c r="C51" s="6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A52" s="2"/>
-    </row>
-    <row r="53" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A53" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="B53" s="4" t="s">
+      <c r="A52" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B52" s="32" t="s">
+        <v>183</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53" s="2"/>
+    </row>
+    <row r="54" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A54" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B54" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C53" s="4" t="s">
+      <c r="C54" s="4" t="s">
         <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A54" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="B54" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="C54" s="6" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="B55" s="39" t="s">
-        <v>4</v>
+        <v>172</v>
+      </c>
+      <c r="B55" s="35" t="s">
+        <v>109</v>
       </c>
       <c r="C55" s="6" t="s">
         <v>6</v>
@@ -2023,10 +2033,10 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="B56" s="37" t="s">
-        <v>5</v>
+        <v>173</v>
+      </c>
+      <c r="B56" s="35" t="s">
+        <v>4</v>
       </c>
       <c r="C56" s="6" t="s">
         <v>6</v>
@@ -2034,46 +2044,46 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="B57" s="37" t="s">
-        <v>116</v>
+        <v>174</v>
+      </c>
+      <c r="B57" s="33" t="s">
+        <v>5</v>
       </c>
       <c r="C57" s="6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A58" s="2"/>
-    </row>
-    <row r="59" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A59" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="B59" s="4" t="s">
+      <c r="A58" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B58" s="33" t="s">
+        <v>114</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A59" s="2"/>
+    </row>
+    <row r="60" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A60" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="B60" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C59" s="4" t="s">
+      <c r="C60" s="4" t="s">
         <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A60" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="B60" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C60" s="6" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="B61" s="37" t="s">
-        <v>23</v>
+        <v>177</v>
+      </c>
+      <c r="B61" s="8" t="s">
+        <v>31</v>
       </c>
       <c r="C61" s="6" t="s">
         <v>6</v>
@@ -2081,12 +2091,23 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="B62" s="8" t="s">
-        <v>24</v>
+        <v>178</v>
+      </c>
+      <c r="B62" s="33" t="s">
+        <v>22</v>
       </c>
       <c r="C62" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A63" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B63" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C63" s="6" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2095,7 +2116,7 @@
     <mergeCell ref="A1:C1"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="result" sqref="C48">
+    <dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="result" sqref="C49">
       <formula1>result</formula1>
     </dataValidation>
   </dataValidations>
@@ -2105,10 +2126,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G48"/>
+  <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2124,583 +2145,583 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
-        <v>120</v>
-      </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
+      <c r="A1" s="38" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
     </row>
     <row r="3" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A3" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="B3" s="34" t="s">
+      <c r="A3" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="30" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="31"/>
+      <c r="A4" s="40"/>
       <c r="B4" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C4" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="40"/>
+      <c r="B5" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="40"/>
+      <c r="B6" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="D4" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="E4" s="1" t="s">
+      <c r="D6" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F6" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="G4" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="31"/>
-      <c r="B5" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C5" s="18" t="s">
+      <c r="G6" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="40"/>
+      <c r="B7" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="40"/>
+      <c r="B8" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="D5" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="E5" s="1" t="s">
+      <c r="C8" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F8" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="G5" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="31"/>
-      <c r="B6" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="D6" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="31"/>
-      <c r="B7" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="C7" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="D7" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="31"/>
-      <c r="B8" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="C8" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="D8" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>34</v>
-      </c>
       <c r="G8" s="6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="31"/>
+      <c r="A9" s="40"/>
       <c r="B9" s="8" t="s">
         <v>17</v>
       </c>
       <c r="C9" s="23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D9" s="20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G9" s="6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="31"/>
+      <c r="A10" s="40"/>
       <c r="B10" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="D10" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="C10" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="D10" s="22" t="s">
-        <v>48</v>
-      </c>
       <c r="E10" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G10" s="6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="31"/>
+      <c r="A11" s="40"/>
       <c r="B11" s="8" t="s">
         <v>12</v>
       </c>
       <c r="C11" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="D11" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A12" s="40"/>
+      <c r="B12" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="D11" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="31"/>
-      <c r="B12" s="5" t="s">
+      <c r="D12" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A13" s="40"/>
+      <c r="B13" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C12" s="25" t="s">
-        <v>87</v>
-      </c>
-      <c r="D12" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="31"/>
-      <c r="B13" s="5" t="s">
+      <c r="C13" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="D13" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="C13" s="25" t="s">
-        <v>86</v>
-      </c>
-      <c r="D13" s="22" t="s">
-        <v>52</v>
-      </c>
       <c r="E13" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G13" s="6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="31"/>
+      <c r="A14" s="40"/>
       <c r="B14" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C14" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="D14" s="19" t="s">
-        <v>57</v>
-      </c>
       <c r="E14" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G14" s="6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="31"/>
+      <c r="A15" s="40"/>
       <c r="B15" s="5" t="s">
         <v>14</v>
       </c>
       <c r="C15" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A16" s="40"/>
+      <c r="B16" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="D16" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="D15" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A16" s="31"/>
-      <c r="B16" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C16" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="D16" s="19" t="s">
-        <v>61</v>
-      </c>
       <c r="E16" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G16" s="6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="31"/>
+      <c r="A17" s="40"/>
       <c r="B17" s="5" t="s">
         <v>15</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D17" s="19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G17" s="6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="31"/>
+      <c r="A18" s="40"/>
       <c r="B18" s="5" t="s">
         <v>16</v>
       </c>
       <c r="C18" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="D18" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A19" s="40"/>
+      <c r="B19" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="C19" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A20" s="40"/>
+      <c r="B20" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="D18" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G18" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A19" s="31"/>
-      <c r="B19" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="C19" s="24" t="s">
+      <c r="C20" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="D20" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="D19" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="F19" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="G19" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A20" s="31"/>
-      <c r="B20" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="C20" s="26" t="s">
-        <v>88</v>
-      </c>
-      <c r="D20" s="22" t="s">
-        <v>68</v>
-      </c>
       <c r="E20" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G20" s="6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A21" s="31"/>
+      <c r="A21" s="40"/>
       <c r="B21" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C21" s="23" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D21" s="22" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G21" s="6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A22" s="31"/>
+      <c r="A22" s="40"/>
       <c r="B22" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D22" s="19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G22" s="6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A23" s="31"/>
+      <c r="A23" s="40"/>
       <c r="B23" s="5" t="s">
         <v>20</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D23" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G23" s="6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="31"/>
+      <c r="A24" s="40"/>
       <c r="B24" s="5" t="s">
         <v>19</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D24" s="19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G24" s="6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A25" s="31"/>
+      <c r="A25" s="40"/>
       <c r="B25" s="27" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C25" s="25" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D25" s="19" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G25" s="6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A26" s="31"/>
+      <c r="A26" s="40"/>
       <c r="B26" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C26" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="D26" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A27" s="40"/>
+      <c r="B27" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="C27" s="18" t="s">
+        <v>184</v>
+      </c>
+      <c r="D27" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="D26" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G26" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A27" s="31"/>
-      <c r="B27" s="5" t="s">
+      <c r="E27" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A28" s="40"/>
+      <c r="B28" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C27" s="18" t="s">
+      <c r="C28" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="D27" s="19" t="s">
+      <c r="D28" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A29" s="41"/>
+      <c r="B29" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C29" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="E27" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G27" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A28" s="31"/>
-      <c r="B28" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C28" s="23" t="s">
+      <c r="D29" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="D28" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="G28" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A29" s="32"/>
-      <c r="B29" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C29" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="D29" s="22" t="s">
-        <v>82</v>
-      </c>
       <c r="E29" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G29" s="6" t="s">
         <v>6</v>
@@ -2716,128 +2737,128 @@
       <c r="G30" s="11"/>
     </row>
     <row r="31" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A31" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="B31" s="34" t="s">
+      <c r="A31" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="B31" s="30" t="s">
         <v>0</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G31" s="4" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A32" s="31"/>
+      <c r="A32" s="40"/>
       <c r="B32" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C32" s="18" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D32" s="19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G32" s="6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A33" s="31"/>
+      <c r="A33" s="40"/>
       <c r="B33" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C33" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="D33" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G33" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A34" s="40"/>
+      <c r="B34" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C34" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="D34" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A35" s="40"/>
+      <c r="B35" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="D33" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="G33" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A34" s="31"/>
-      <c r="B34" s="5" t="s">
+      <c r="C35" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="C34" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="D34" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G34" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="A35" s="31"/>
-      <c r="B35" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="C35" s="18" t="s">
-        <v>97</v>
-      </c>
       <c r="D35" s="20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G35" s="6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A36" s="32"/>
+      <c r="A36" s="41"/>
       <c r="B36" s="5" t="s">
         <v>2</v>
       </c>
       <c r="C36" s="18" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D36" s="19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G36" s="6" t="s">
         <v>6</v>
@@ -2847,235 +2868,256 @@
       <c r="A37" s="2"/>
     </row>
     <row r="38" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A38" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="B38" s="34" t="s">
+      <c r="A38" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="B38" s="30" t="s">
         <v>0</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G38" s="4" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A39" s="31"/>
+      <c r="A39" s="40"/>
       <c r="B39" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C39" s="25" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D39" s="19" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G39" s="6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A40" s="31"/>
+      <c r="A40" s="40"/>
       <c r="B40" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C40" s="18" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D40" s="19" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G40" s="6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A41" s="31"/>
+      <c r="A41" s="40"/>
       <c r="B41" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C41" s="18" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D41" s="19" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G41" s="6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A42" s="31"/>
+      <c r="A42" s="40"/>
       <c r="B42" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C42" s="18" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D42" s="19" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G42" s="6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A43" s="31"/>
+      <c r="A43" s="40"/>
       <c r="B43" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C43" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="D43" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G43" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A44" s="40"/>
+      <c r="B44" s="31" t="s">
+        <v>181</v>
+      </c>
+      <c r="C44" s="18" t="s">
+        <v>182</v>
+      </c>
+      <c r="D44" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G44" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A45" s="40"/>
+      <c r="B45" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="C45" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="D43" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="E43" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G43" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A44" s="31"/>
-      <c r="B44" s="28" t="s">
+      <c r="D45" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="E45" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G45" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A46" s="40"/>
+      <c r="B46" s="28" t="s">
         <v>109</v>
       </c>
-      <c r="C44" s="23" t="s">
+      <c r="C46" s="29" t="s">
         <v>110</v>
       </c>
-      <c r="D44" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="E44" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G44" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A45" s="31"/>
-      <c r="B45" s="28" t="s">
+      <c r="D46" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="E46" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G46" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A47" s="40"/>
+      <c r="B47" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C47" s="29" t="s">
         <v>111</v>
       </c>
-      <c r="C45" s="29" t="s">
+      <c r="D47" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G47" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A48" s="40"/>
+      <c r="B48" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C48" s="29" t="s">
         <v>112</v>
       </c>
-      <c r="D45" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="E45" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G45" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A46" s="31"/>
-      <c r="B46" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C46" s="29" t="s">
+      <c r="D48" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="E48" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G48" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A49" s="41"/>
+      <c r="B49" s="28" t="s">
+        <v>114</v>
+      </c>
+      <c r="C49" s="18" t="s">
         <v>113</v>
       </c>
-      <c r="D46" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="E46" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G46" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A47" s="31"/>
-      <c r="B47" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C47" s="29" t="s">
-        <v>114</v>
-      </c>
-      <c r="D47" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="E47" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G47" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A48" s="32"/>
-      <c r="B48" s="28" t="s">
-        <v>116</v>
-      </c>
-      <c r="C48" s="18" t="s">
-        <v>115</v>
-      </c>
-      <c r="D48" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="E48" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G48" s="6" t="s">
+      <c r="D49" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="E49" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G49" s="6" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3084,7 +3126,7 @@
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A3:A29"/>
     <mergeCell ref="A31:A36"/>
-    <mergeCell ref="A38:A48"/>
+    <mergeCell ref="A38:A49"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
